--- a/finalp/src/main/webapp/resources/db/NOTICE.xlsx
+++ b/finalp/src/main/webapp/resources/db/NOTICE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalProjectWorkspace\finalp\src\main\webapp\resources\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B512448A-C935-4183-97E3-DB05C2CE5DC6}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEBB629-DA4C-4F8D-9550-0B477538521F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13812" windowHeight="8424" xr2:uid="{F52261AF-7EA2-4854-8456-1D65602B9D5B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>NOTICE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2163,12 +2163,2128 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>콘샐러드 로그인 후 , 화면 우측 상단 마이페이지를 클릭하시면 정보 수정 메뉴가 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드란?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먼저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확실히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텀블벅으로부터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>성공</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받아보셨는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인해주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>텀블벅에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀어주기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받아보셨는데도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>후원현황에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추측해볼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정황으로는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>당시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가입을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제하셨을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘샐러드는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음악</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미술</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건축</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디자인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테크놀로지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게임</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창조적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분야를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>총</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>망라하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창작자를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크라우드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>펀딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랫폼입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리에이터가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자금의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대안적인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통로를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>크리에이터와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팬들을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창작자들의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비전이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편리한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실현될</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있도록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우리의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모든</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기울이고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콘샐러드에 제휴,협력 제안을 하고싶다면…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">콘샐러드 서비스와의 제휴/협력 제안은 연락처와 함께 admin@cornsalad.com </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 보내주세요. 담당자가 제안 주신 내용 확인 후 답변을 드리겠습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주말/휴일 제공되지않는 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>콘샐러드에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀어주거나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로운</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로젝트를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>편집하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대부분의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휴일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제공되고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 잊어버렸습니다. 어떻게 하면 좋죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>메인화면 우측 상단의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 클릭 후, 로그인 창 하단의 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>비밀번호 찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF191919"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>를 통해 비밀번호를 재설정하실 수 있습니다.</t>
+    </r>
+  </si>
+  <si>
+    <t>계정 탈퇴 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">계정 삭제를 원하시는 경우, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1:1 문의하기로 계정 삭제 요청을 보내주세요. 운영진이 직접 탈퇴 처리 후 결과를 안내드리겠습니다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 주소 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지에서 후원한 프로젝트가 보이지 않아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매자를 위한 공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매자를 위한 공지사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2204,6 +4320,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF191919"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2222,12 +4363,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2240,9 +4384,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2554,11 +4702,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94FE69F-C202-4445-BAE7-0B18651B3A9F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2586,13 +4732,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>43160</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>43179</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2600,13 +4746,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>43161</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>43178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2614,13 +4760,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>43162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
+        <v>43177</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2628,13 +4774,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
-        <v>43163</v>
+        <v>43176</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2642,33 +4788,260 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
-        <v>43164</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>43175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" s="1"/>
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43174</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C8" s="1"/>
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43173</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" s="1"/>
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43172</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C10" s="1"/>
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" s="1"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43170</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43169</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43168</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43166</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43165</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43164</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43162</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43160</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" display="mailto:partnership@tumblbug.com" xr:uid="{531D1AB5-8960-4D50-A909-460E16F4BC6D}"/>
+    <hyperlink ref="D13" r:id="rId2" display="https://help.tumblbug.com/hc/ko/requests/new" xr:uid="{9547F227-DA6B-4541-A2BF-7C37BF8B3E6B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
 </worksheet>
 </file>